--- a/html/data/arsenal/Club.xlsx
+++ b/html/data/arsenal/Club.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -32,18 +32,50 @@
   </si>
   <si>
     <t>background</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Arsène Wenger</t>
+  </si>
+  <si>
+    <t>Emirates</t>
+  </si>
+  <si>
+    <t>The Arsenal/The Gunner</t>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Arsenal_F.C.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF252525"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -88,9 +120,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,18 +433,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="69.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -425,9 +465,38 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1886</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>